--- a/PLOTS/Noisy.xlsx
+++ b/PLOTS/Noisy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\Documents\GitHub\rfid_locatron_CLONED\PLOTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\rfid_locatron\PLOTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67063D5-3452-4FD2-938F-9789FAB38DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1806F5-1D0A-40FC-A76A-11CCE8F658BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34140" yWindow="6135" windowWidth="17250" windowHeight="8910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1320" windowWidth="6360" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Triangulation</t>
   </si>
@@ -49,13 +49,16 @@
   </si>
   <si>
     <t>TX_-40</t>
+  </si>
+  <si>
+    <t>0.3485​</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +72,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9EBF5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -86,12 +101,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +458,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,8 +484,8 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0.50890000000000002</v>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0.15279999999999999</v>
@@ -414,12 +497,12 @@
         <v>0.1406</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1.1071</v>
+      <c r="B3" s="2">
+        <v>1.1647000000000001</v>
       </c>
       <c r="C3">
         <v>0.57110000000000005</v>
@@ -431,12 +514,12 @@
         <v>0.56820000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>1.3363799999999999</v>
+      <c r="B4" s="3">
+        <v>1.3028</v>
       </c>
       <c r="C4">
         <v>0.69140000000000001</v>
@@ -452,8 +535,8 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>0.46960000000000002</v>
+      <c r="B5" s="4">
+        <v>0.46610000000000001</v>
       </c>
       <c r="C5">
         <v>0.76429999999999998</v>
@@ -468,5 +551,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>